--- a/RT4/export_excel/rendements.xlsx
+++ b/RT4/export_excel/rendements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LEXAR/Fiches_DQ/RT/RT4/export_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC26EBD-72A0-8A4B-ABD4-FCA7C6DE59CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF5682-CDA7-B642-A34D-34CA31D8C8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="3" activeTab="4" xr2:uid="{9015BCF3-9FB4-764A-8EE4-B27291AA42FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="9" activeTab="13" xr2:uid="{9015BCF3-9FB4-764A-8EE4-B27291AA42FF}"/>
   </bookViews>
   <sheets>
     <sheet name="RDT_06MeV_10_DSP100_CC13" sheetId="1" r:id="rId1"/>
@@ -6815,1327 +6815,1327 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>197.6</v>
+        <v>197.3</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>196.6</v>
+        <v>196.2</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>195.3</v>
+        <v>195.1</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>194.1</v>
+        <v>193.9</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>192.9</v>
+        <v>192.7</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>191.7</v>
+        <v>191.4</v>
       </c>
       <c r="B9">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>190.5</v>
+        <v>190.3</v>
       </c>
       <c r="B10">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>189.3</v>
+        <v>189.1</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="B12">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>186.9</v>
+        <v>186.7</v>
       </c>
       <c r="B13">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>185.7</v>
+        <v>185.4</v>
       </c>
       <c r="B14">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>184.5</v>
+        <v>184.2</v>
       </c>
       <c r="B15">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>183.3</v>
+        <v>183</v>
       </c>
       <c r="B16">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="B17">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="B18">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>179.7</v>
+        <v>179.4</v>
       </c>
       <c r="B19">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>178.5</v>
+        <v>178.2</v>
       </c>
       <c r="B20">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>177.2</v>
+        <v>177</v>
       </c>
       <c r="B21">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>176</v>
+        <v>175.8</v>
       </c>
       <c r="B22">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>174.9</v>
+        <v>174.6</v>
       </c>
       <c r="B23">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>173.6</v>
+        <v>173.4</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>172.4</v>
+        <v>172.2</v>
       </c>
       <c r="B25">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>171.2</v>
+        <v>170.9</v>
       </c>
       <c r="B26">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>170.1</v>
+        <v>169.8</v>
       </c>
       <c r="B27">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>168.8</v>
+        <v>168.6</v>
       </c>
       <c r="B28">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>167.6</v>
+        <v>167.3</v>
       </c>
       <c r="B29">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>166.4</v>
+        <v>166.1</v>
       </c>
       <c r="B30">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>165.2</v>
+        <v>164.9</v>
       </c>
       <c r="B31">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>164</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="B32">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>162.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="B33">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>161.6</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="B34">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>160.4</v>
+        <v>160.1</v>
       </c>
       <c r="B35">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>159.19999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>158</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>156.80000000000001</v>
+        <v>156.5</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>155.6</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>154.4</v>
+        <v>154.1</v>
       </c>
       <c r="B40">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>153.19999999999999</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="B41">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>152</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="B42">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>150.80000000000001</v>
+        <v>150.5</v>
       </c>
       <c r="B43">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>149.6</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="B44">
-        <v>0.53</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>148.4</v>
+        <v>148</v>
       </c>
       <c r="B45">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>147.19999999999999</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="B46">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>146</v>
+        <v>145.6</v>
       </c>
       <c r="B47">
-        <v>0.53</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>144.80000000000001</v>
+        <v>144.4</v>
       </c>
       <c r="B48">
-        <v>0.56000000000000005</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>143.6</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="B49">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="B50">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>141.1</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="B51">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>140</v>
+        <v>139.6</v>
       </c>
       <c r="B52">
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>138.69999999999999</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="B53">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>137.5</v>
+        <v>137.1</v>
       </c>
       <c r="B54">
-        <v>0.56000000000000005</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>136.30000000000001</v>
+        <v>135.9</v>
       </c>
       <c r="B55">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>135.1</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="B56">
-        <v>0.57999999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>133.9</v>
+        <v>133.5</v>
       </c>
       <c r="B57">
-        <v>0.57999999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>132.69999999999999</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="B58">
-        <v>0.59</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>131.5</v>
+        <v>131.1</v>
       </c>
       <c r="B59">
-        <v>0.57999999999999996</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>130.30000000000001</v>
+        <v>129.9</v>
       </c>
       <c r="B60">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>129.1</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="B61">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>127.9</v>
+        <v>127.5</v>
       </c>
       <c r="B62">
-        <v>0.56999999999999995</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>126.7</v>
+        <v>126.2</v>
       </c>
       <c r="B63">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>125.5</v>
+        <v>125.1</v>
       </c>
       <c r="B64">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>124.3</v>
+        <v>123.8</v>
       </c>
       <c r="B65">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>123.1</v>
+        <v>122.6</v>
       </c>
       <c r="B66">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>121.9</v>
+        <v>121.4</v>
       </c>
       <c r="B67">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>120.7</v>
+        <v>120.2</v>
       </c>
       <c r="B68">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>119.5</v>
+        <v>119</v>
       </c>
       <c r="B69">
-        <v>0.65</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>118.3</v>
+        <v>117.8</v>
       </c>
       <c r="B70">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>117.1</v>
+        <v>116.6</v>
       </c>
       <c r="B71">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>115.9</v>
+        <v>115.4</v>
       </c>
       <c r="B72">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>114.7</v>
+        <v>114.2</v>
       </c>
       <c r="B73">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>113.5</v>
+        <v>113</v>
       </c>
       <c r="B74">
-        <v>0.65</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>112.3</v>
+        <v>111.8</v>
       </c>
       <c r="B75">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>111.1</v>
+        <v>110.5</v>
       </c>
       <c r="B76">
-        <v>0.69</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>109.9</v>
+        <v>109.3</v>
       </c>
       <c r="B77">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>108.7</v>
+        <v>108.2</v>
       </c>
       <c r="B78">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>107.4</v>
+        <v>106.9</v>
       </c>
       <c r="B79">
-        <v>0.69</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>106.3</v>
+        <v>105.7</v>
       </c>
       <c r="B80">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>105</v>
+        <v>104.5</v>
       </c>
       <c r="B81">
-        <v>0.69</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>103.9</v>
+        <v>103.3</v>
       </c>
       <c r="B82">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="B83">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="B84">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="B85">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="B86">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>97.9</v>
+        <v>97.3</v>
       </c>
       <c r="B87">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>96.6</v>
+        <v>96.1</v>
       </c>
       <c r="B88">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>95.4</v>
+        <v>94.9</v>
       </c>
       <c r="B89">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>94.2</v>
+        <v>93.7</v>
       </c>
       <c r="B90">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="B91">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91.8</v>
+        <v>91.3</v>
       </c>
       <c r="B92">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90.6</v>
+        <v>90.1</v>
       </c>
       <c r="B93">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>89.4</v>
+        <v>88.8</v>
       </c>
       <c r="B94">
-        <v>0.77</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>88.2</v>
+        <v>87.6</v>
       </c>
       <c r="B95">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>87</v>
+        <v>86.5</v>
       </c>
       <c r="B96">
-        <v>0.81</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>85.8</v>
+        <v>85.2</v>
       </c>
       <c r="B97">
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>84.6</v>
+        <v>84</v>
       </c>
       <c r="B98">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>83.4</v>
+        <v>82.8</v>
       </c>
       <c r="B99">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>82.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="B100">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>81</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="B101">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>79.8</v>
+        <v>79.2</v>
       </c>
       <c r="B102">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>78.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="B103">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>77.400000000000006</v>
+        <v>76.7</v>
       </c>
       <c r="B104">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>76.099999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="B105">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>74.900000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="B106">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>73.7</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="B107">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>72.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="B108">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>71.3</v>
+        <v>70.7</v>
       </c>
       <c r="B109">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>70.099999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="B110">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>68.900000000000006</v>
+        <v>68.3</v>
       </c>
       <c r="B111">
-        <v>0.94</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="B112">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>66.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="B113">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>65.3</v>
+        <v>64.7</v>
       </c>
       <c r="B114">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>64.099999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="B115">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>62.9</v>
+        <v>62.2</v>
       </c>
       <c r="B116">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>61.7</v>
+        <v>61.1</v>
       </c>
       <c r="B117">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>60.5</v>
+        <v>59.8</v>
       </c>
       <c r="B118">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>59.3</v>
+        <v>58.6</v>
       </c>
       <c r="B119">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="B120">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>56.9</v>
+        <v>56.2</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="B122">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>54.4</v>
+        <v>53.8</v>
       </c>
       <c r="B123">
-        <v>1.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>53.2</v>
+        <v>52.6</v>
       </c>
       <c r="B124">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="B125">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="B126">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="B127">
-        <v>1.03</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>48.4</v>
+        <v>47.7</v>
       </c>
       <c r="B128">
-        <v>1.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="B129">
-        <v>1.1100000000000001</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>46</v>
+        <v>45.3</v>
       </c>
       <c r="B130">
-        <v>1.19</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>44.8</v>
+        <v>44.1</v>
       </c>
       <c r="B131">
-        <v>1.28</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>43.6</v>
+        <v>42.9</v>
       </c>
       <c r="B132">
-        <v>1.66</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>42.3</v>
+        <v>41.7</v>
       </c>
       <c r="B133">
-        <v>2.31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>41.1</v>
+        <v>40.5</v>
       </c>
       <c r="B134">
-        <v>3.5</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>39.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="B135">
-        <v>5.52</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>38.700000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="B136">
-        <v>8.39</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="B137">
-        <v>12.33</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>36.299999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="B138">
-        <v>17.53</v>
+        <v>48.61</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>35.1</v>
+        <v>34.4</v>
       </c>
       <c r="B139">
-        <v>23.15</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>33.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="B140">
-        <v>30.12</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>32.700000000000003</v>
+        <v>32</v>
       </c>
       <c r="B141">
-        <v>37.64</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="B142">
-        <v>45</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="B143">
-        <v>52.75</v>
+        <v>80.91</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="B144">
-        <v>59.97</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="B145">
-        <v>67.13</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="B146">
-        <v>73.61</v>
+        <v>93.47</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="B147">
-        <v>79.33</v>
+        <v>95.97</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="B148">
-        <v>84.79</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="B149">
-        <v>89.39</v>
+        <v>99.36</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="B150">
-        <v>92.55</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>20.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B151">
-        <v>95.36</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>19.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="B152">
-        <v>97.49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="B153">
-        <v>99.16</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="B154">
-        <v>99.73</v>
+        <v>98.49</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>15.8</v>
+        <v>15.1</v>
       </c>
       <c r="B155">
-        <v>100</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>14.6</v>
+        <v>13.9</v>
       </c>
       <c r="B156">
-        <v>99.64</v>
+        <v>96.76</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="B157">
-        <v>98.96</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="B158">
-        <v>97.99</v>
+        <v>94.39</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B159">
-        <v>96.85</v>
+        <v>93.49</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>9.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="B160">
-        <v>95.61</v>
+        <v>92.26</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="B161">
-        <v>94.35</v>
+        <v>91.26</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="B162">
-        <v>92.83</v>
+        <v>90.33</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="B163">
-        <v>91.76</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="B164">
-        <v>90.46</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="B165">
-        <v>89.45</v>
+        <v>86.94</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="B166">
-        <v>88.2</v>
+        <v>86.09</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="B167">
-        <v>87.17</v>
+        <v>85.66</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -8143,7 +8143,7 @@
         <v>-0.5</v>
       </c>
       <c r="B168">
-        <v>85.61</v>
+        <v>85.68</v>
       </c>
     </row>
   </sheetData>
@@ -8156,7 +8156,7 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B168"/>
     </sheetView>
   </sheetViews>
@@ -8175,1300 +8175,1300 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="B3">
-        <v>0.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>197.6</v>
+        <v>197.3</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>196.6</v>
+        <v>196.2</v>
       </c>
       <c r="B5">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>195.3</v>
+        <v>195.1</v>
       </c>
       <c r="B6">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>194.1</v>
+        <v>194</v>
       </c>
       <c r="B7">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>193</v>
+        <v>192.7</v>
       </c>
       <c r="B8">
-        <v>0.42</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>191.7</v>
+        <v>191.5</v>
       </c>
       <c r="B9">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>190.5</v>
+        <v>190.3</v>
       </c>
       <c r="B10">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>189.3</v>
+        <v>189.1</v>
       </c>
       <c r="B11">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="B12">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>186.9</v>
+        <v>186.7</v>
       </c>
       <c r="B13">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>185.7</v>
+        <v>185.5</v>
       </c>
       <c r="B14">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>184.5</v>
+        <v>184.2</v>
       </c>
       <c r="B15">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>183.3</v>
+        <v>183</v>
       </c>
       <c r="B16">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="B17">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="B18">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>179.7</v>
+        <v>179.4</v>
       </c>
       <c r="B19">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>178.5</v>
+        <v>178.2</v>
       </c>
       <c r="B20">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>177.3</v>
+        <v>177</v>
       </c>
       <c r="B21">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>176.1</v>
+        <v>175.8</v>
       </c>
       <c r="B22">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>174.8</v>
+        <v>174.6</v>
       </c>
       <c r="B23">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>173.6</v>
+        <v>173.4</v>
       </c>
       <c r="B24">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>172.4</v>
+        <v>172.2</v>
       </c>
       <c r="B25">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>171.3</v>
+        <v>171</v>
       </c>
       <c r="B26">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>170</v>
+        <v>169.8</v>
       </c>
       <c r="B27">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>168.8</v>
+        <v>168.5</v>
       </c>
       <c r="B28">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>167.6</v>
+        <v>167.3</v>
       </c>
       <c r="B29">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>166.4</v>
+        <v>166.2</v>
       </c>
       <c r="B30">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>165.2</v>
+        <v>164.9</v>
       </c>
       <c r="B31">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>164</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="B32">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>162.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="B33">
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>161.6</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="B34">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>160.4</v>
+        <v>160.1</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>159.19999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="B36">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>158</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="B37">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>156.80000000000001</v>
+        <v>156.5</v>
       </c>
       <c r="B38">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>155.6</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="B39">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>154.4</v>
+        <v>154.1</v>
       </c>
       <c r="B40">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>153.19999999999999</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="B41">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>152</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="B42">
-        <v>0.53</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>150.80000000000001</v>
+        <v>150.5</v>
       </c>
       <c r="B43">
-        <v>0.56000000000000005</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>149.5</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="B44">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>148.30000000000001</v>
+        <v>148.1</v>
       </c>
       <c r="B45">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>147.1</v>
+        <v>146.9</v>
       </c>
       <c r="B46">
-        <v>0.56000000000000005</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>145.9</v>
+        <v>145.6</v>
       </c>
       <c r="B47">
-        <v>0.56999999999999995</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>144.69999999999999</v>
+        <v>144.4</v>
       </c>
       <c r="B48">
-        <v>0.56999999999999995</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>143.5</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="B49">
-        <v>0.56000000000000005</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>142.30000000000001</v>
+        <v>142.1</v>
       </c>
       <c r="B50">
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>141.1</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="B51">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>139.9</v>
+        <v>139.6</v>
       </c>
       <c r="B52">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>138.69999999999999</v>
+        <v>138.4</v>
       </c>
       <c r="B53">
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>137.5</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="B54">
-        <v>0.57999999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>136.30000000000001</v>
+        <v>136</v>
       </c>
       <c r="B55">
-        <v>0.59</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>135.1</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="B56">
-        <v>0.6</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>133.9</v>
+        <v>133.6</v>
       </c>
       <c r="B57">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>132.69999999999999</v>
+        <v>132.4</v>
       </c>
       <c r="B58">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>131.5</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="B59">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>130.30000000000001</v>
+        <v>130</v>
       </c>
       <c r="B60">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>129.1</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="B61">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>127.9</v>
+        <v>127.6</v>
       </c>
       <c r="B62">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>126.7</v>
+        <v>126.4</v>
       </c>
       <c r="B63">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>125.5</v>
+        <v>125.2</v>
       </c>
       <c r="B64">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>124.3</v>
+        <v>124</v>
       </c>
       <c r="B65">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>123</v>
+        <v>122.7</v>
       </c>
       <c r="B66">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>121.9</v>
+        <v>121.6</v>
       </c>
       <c r="B67">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>120.7</v>
+        <v>120.4</v>
       </c>
       <c r="B68">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>119.4</v>
+        <v>119.2</v>
       </c>
       <c r="B69">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>118.3</v>
+        <v>118</v>
       </c>
       <c r="B70">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>117</v>
+        <v>116.7</v>
       </c>
       <c r="B71">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>115.8</v>
+        <v>115.5</v>
       </c>
       <c r="B72">
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
       <c r="B73">
-        <v>0.69</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>113.4</v>
+        <v>113.1</v>
       </c>
       <c r="B74">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>112.2</v>
+        <v>111.9</v>
       </c>
       <c r="B75">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>111</v>
+        <v>110.7</v>
       </c>
       <c r="B76">
-        <v>0.69</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>109.8</v>
+        <v>109.5</v>
       </c>
       <c r="B77">
-        <v>0.69</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="B78">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="B79">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>106.2</v>
+        <v>105.9</v>
       </c>
       <c r="B80">
-        <v>0.73</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>105</v>
+        <v>104.7</v>
       </c>
       <c r="B81">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>103.8</v>
+        <v>103.5</v>
       </c>
       <c r="B82">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="B83">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100.2</v>
+        <v>99.9</v>
       </c>
       <c r="B85">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="B86">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>97.8</v>
+        <v>97.4</v>
       </c>
       <c r="B87">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>96.6</v>
+        <v>96.2</v>
       </c>
       <c r="B88">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>95.4</v>
+        <v>95.1</v>
       </c>
       <c r="B89">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>94.2</v>
+        <v>93.9</v>
       </c>
       <c r="B90">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="B91">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91.8</v>
+        <v>91.4</v>
       </c>
       <c r="B92">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90.6</v>
+        <v>90.2</v>
       </c>
       <c r="B93">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>89.4</v>
+        <v>89.1</v>
       </c>
       <c r="B94">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>88.2</v>
+        <v>87.8</v>
       </c>
       <c r="B95">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>87</v>
+        <v>86.6</v>
       </c>
       <c r="B96">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>85.8</v>
+        <v>85.4</v>
       </c>
       <c r="B97">
-        <v>0.84</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>84.6</v>
+        <v>84.2</v>
       </c>
       <c r="B98">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="B99">
-        <v>0.83</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>82.1</v>
+        <v>81.8</v>
       </c>
       <c r="B100">
-        <v>0.86</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>80.900000000000006</v>
+        <v>80.5</v>
       </c>
       <c r="B101">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>79.7</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="B102">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>78.5</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="B103">
-        <v>0.86</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>77.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="B104">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>76.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="B105">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>74.900000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="B106">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>73.7</v>
+        <v>73.3</v>
       </c>
       <c r="B107">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>72.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="B108">
-        <v>0.91</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>71.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="B109">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>70.099999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="B110">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>68.900000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="B111">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="B112">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>66.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="B113">
-        <v>0.94</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>65.2</v>
+        <v>64.8</v>
       </c>
       <c r="B114">
-        <v>0.95</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>64</v>
+        <v>63.6</v>
       </c>
       <c r="B115">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>62.8</v>
+        <v>62.4</v>
       </c>
       <c r="B116">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>61.6</v>
+        <v>61.2</v>
       </c>
       <c r="B117">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>60.4</v>
+        <v>60</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>59.2</v>
+        <v>58.8</v>
       </c>
       <c r="B119">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="B120">
-        <v>1.01</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>56.8</v>
+        <v>56.4</v>
       </c>
       <c r="B121">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="B122">
-        <v>1.04</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>54.4</v>
+        <v>53.9</v>
       </c>
       <c r="B123">
-        <v>1.05</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
       <c r="B124">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="B125">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="B126">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="B127">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="B128">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>47.1</v>
+        <v>46.7</v>
       </c>
       <c r="B129">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>45.9</v>
+        <v>45.5</v>
       </c>
       <c r="B130">
-        <v>1.74</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="B131">
-        <v>2.44</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="B132">
-        <v>3.87</v>
+        <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="B133">
-        <v>5.96</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>41.1</v>
+        <v>40.6</v>
       </c>
       <c r="B134">
-        <v>8.9600000000000009</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="B135">
-        <v>13.32</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>38.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="B136">
-        <v>18.190000000000001</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="B137">
-        <v>24.4</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>36.200000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="B138">
-        <v>31.65</v>
+        <v>46.89</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="B139">
-        <v>38.56</v>
+        <v>53.73</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>33.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="B140">
-        <v>46.57</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="B141">
-        <v>54.16</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>31.4</v>
+        <v>30.9</v>
       </c>
       <c r="B142">
-        <v>60.94</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="B143">
-        <v>68.72</v>
+        <v>80.209999999999994</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="B144">
-        <v>74.64</v>
+        <v>85.86</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="B145">
-        <v>80.38</v>
+        <v>89.14</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="B146">
-        <v>85.95</v>
+        <v>93.14</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="B147">
-        <v>89.23</v>
+        <v>95.58</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="B148">
-        <v>93.35</v>
+        <v>97.87</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="B149">
-        <v>96.29</v>
+        <v>99.19</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="B150">
-        <v>97.92</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>20.6</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B151">
-        <v>98.93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>19.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B152">
-        <v>99.8</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>18.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="B153">
-        <v>100</v>
+        <v>99.22</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>16.899999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="B154">
-        <v>99.74</v>
+        <v>98.65</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="B155">
-        <v>98.96</v>
+        <v>97.19</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="B156">
-        <v>97.68</v>
+        <v>96.28</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="B157">
-        <v>96.63</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="B158">
-        <v>95.11</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="B159">
-        <v>93.95</v>
+        <v>93.31</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B160">
-        <v>92.71</v>
+        <v>92.14</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="B161">
-        <v>91.44</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="B162">
-        <v>89.86</v>
+        <v>89.68</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="B163">
-        <v>88.69</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B164">
         <v>87.6</v>
@@ -9476,26 +9476,26 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="B165">
-        <v>86.26</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="B166">
-        <v>85.45</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="B167">
-        <v>83.87</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -9503,7 +9503,7 @@
         <v>-0.5</v>
       </c>
       <c r="B168">
-        <v>82.39</v>
+        <v>85.13</v>
       </c>
     </row>
   </sheetData>
@@ -13596,7 +13596,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -19036,8 +19036,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B284"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection sqref="A1:B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19055,1327 +19055,1327 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="B3">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>197.7</v>
+        <v>197.3</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>196.6</v>
+        <v>196.1</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>195.3</v>
+        <v>195.1</v>
       </c>
       <c r="B6">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>194.1</v>
+        <v>193.9</v>
       </c>
       <c r="B7">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>193</v>
+        <v>192.6</v>
       </c>
       <c r="B8">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>191.7</v>
+        <v>191.4</v>
       </c>
       <c r="B9">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>190.5</v>
+        <v>190.2</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>189.3</v>
+        <v>189</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>188.1</v>
+        <v>187.8</v>
       </c>
       <c r="B12">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>186.9</v>
+        <v>186.6</v>
       </c>
       <c r="B13">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>185.7</v>
+        <v>185.4</v>
       </c>
       <c r="B14">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>184.5</v>
+        <v>184.2</v>
       </c>
       <c r="B15">
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>183.3</v>
+        <v>183</v>
       </c>
       <c r="B16">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="B17">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="B18">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>179.7</v>
+        <v>179.4</v>
       </c>
       <c r="B19">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>178.5</v>
+        <v>178.2</v>
       </c>
       <c r="B20">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>177.3</v>
+        <v>177</v>
       </c>
       <c r="B21">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>176.1</v>
+        <v>175.8</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>174.9</v>
+        <v>174.6</v>
       </c>
       <c r="B23">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>173.7</v>
+        <v>173.3</v>
       </c>
       <c r="B24">
-        <v>0.45</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>172.5</v>
+        <v>172.2</v>
       </c>
       <c r="B25">
-        <v>0.46</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>171.2</v>
+        <v>171</v>
       </c>
       <c r="B26">
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>170.1</v>
+        <v>169.8</v>
       </c>
       <c r="B27">
-        <v>0.46</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>168.9</v>
+        <v>168.5</v>
       </c>
       <c r="B28">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>167.7</v>
+        <v>167.3</v>
       </c>
       <c r="B29">
-        <v>0.46</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>166.5</v>
+        <v>166.1</v>
       </c>
       <c r="B30">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>165.3</v>
+        <v>164.9</v>
       </c>
       <c r="B31">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>164.1</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="B32">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>162.9</v>
+        <v>162.5</v>
       </c>
       <c r="B33">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>161.6</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="B34">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>160.5</v>
+        <v>160.1</v>
       </c>
       <c r="B35">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>159.19999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>158</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>156.80000000000001</v>
+        <v>156.5</v>
       </c>
       <c r="B38">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>155.6</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="B39">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>154.4</v>
+        <v>154.1</v>
       </c>
       <c r="B40">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>153.19999999999999</v>
+        <v>152.9</v>
       </c>
       <c r="B41">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>152</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="B42">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>150.80000000000001</v>
+        <v>150.4</v>
       </c>
       <c r="B43">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>149.6</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="B44">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="B45">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>147.19999999999999</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="B46">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>146</v>
+        <v>145.6</v>
       </c>
       <c r="B47">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>144.80000000000001</v>
+        <v>144.4</v>
       </c>
       <c r="B48">
-        <v>0.55000000000000004</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>143.6</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="B49">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="B50">
-        <v>0.56999999999999995</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>141.19999999999999</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="B51">
-        <v>0.57999999999999996</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>140</v>
+        <v>139.6</v>
       </c>
       <c r="B52">
-        <v>0.56999999999999995</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>138.80000000000001</v>
+        <v>138.4</v>
       </c>
       <c r="B53">
-        <v>0.56999999999999995</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>137.6</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="B54">
-        <v>0.57999999999999996</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>136.4</v>
+        <v>136</v>
       </c>
       <c r="B55">
-        <v>0.56999999999999995</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>135.1</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="B56">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>134</v>
+        <v>133.6</v>
       </c>
       <c r="B57">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>132.69999999999999</v>
+        <v>132.4</v>
       </c>
       <c r="B58">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>131.5</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="B59">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>130.4</v>
+        <v>130</v>
       </c>
       <c r="B60">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>129.1</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="B61">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>127.9</v>
+        <v>127.6</v>
       </c>
       <c r="B62">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>126.7</v>
+        <v>126.4</v>
       </c>
       <c r="B63">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>125.5</v>
+        <v>125.2</v>
       </c>
       <c r="B64">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>124.3</v>
+        <v>124</v>
       </c>
       <c r="B65">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>123.1</v>
+        <v>122.7</v>
       </c>
       <c r="B66">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>121.9</v>
+        <v>121.6</v>
       </c>
       <c r="B67">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>120.7</v>
+        <v>120.3</v>
       </c>
       <c r="B68">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>119.5</v>
+        <v>119.1</v>
       </c>
       <c r="B69">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>118.3</v>
+        <v>117.9</v>
       </c>
       <c r="B70">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>117.1</v>
+        <v>116.7</v>
       </c>
       <c r="B71">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>115.9</v>
+        <v>115.5</v>
       </c>
       <c r="B72">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>114.7</v>
+        <v>114.3</v>
       </c>
       <c r="B73">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>113.5</v>
+        <v>113.1</v>
       </c>
       <c r="B74">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>112.3</v>
+        <v>111.9</v>
       </c>
       <c r="B75">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>111.1</v>
+        <v>110.6</v>
       </c>
       <c r="B76">
-        <v>0.69</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>109.9</v>
+        <v>109.5</v>
       </c>
       <c r="B77">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>108.7</v>
+        <v>108.2</v>
       </c>
       <c r="B78">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="B79">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>106.3</v>
+        <v>105.8</v>
       </c>
       <c r="B80">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>105</v>
+        <v>104.6</v>
       </c>
       <c r="B81">
-        <v>0.72</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>103.9</v>
+        <v>103.4</v>
       </c>
       <c r="B82">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="B83">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="B85">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="B86">
-        <v>0.76</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>97.9</v>
+        <v>97.4</v>
       </c>
       <c r="B87">
-        <v>0.77</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>96.6</v>
+        <v>96.2</v>
       </c>
       <c r="B88">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>95.4</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>94.3</v>
+        <v>93.8</v>
       </c>
       <c r="B90">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="B91">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91.8</v>
+        <v>91.4</v>
       </c>
       <c r="B92">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90.6</v>
+        <v>90.2</v>
       </c>
       <c r="B93">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>89.4</v>
+        <v>88.9</v>
       </c>
       <c r="B94">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>88.2</v>
+        <v>87.7</v>
       </c>
       <c r="B95">
-        <v>0.81</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>87</v>
+        <v>86.6</v>
       </c>
       <c r="B96">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>85.8</v>
+        <v>85.3</v>
       </c>
       <c r="B97">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>84.6</v>
+        <v>84.1</v>
       </c>
       <c r="B98">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>83.4</v>
+        <v>82.9</v>
       </c>
       <c r="B99">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="B100">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>81</v>
+        <v>80.5</v>
       </c>
       <c r="B101">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>79.8</v>
+        <v>79.3</v>
       </c>
       <c r="B102">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>78.599999999999994</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="B103">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>77.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="B104">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>76.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="B105">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>74.900000000000006</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="B106">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>73.7</v>
+        <v>73.3</v>
       </c>
       <c r="B107">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="B108">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>71.3</v>
+        <v>70.8</v>
       </c>
       <c r="B109">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>70.099999999999994</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="B110">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>68.900000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="B111">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="B112">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>66.5</v>
+        <v>66</v>
       </c>
       <c r="B113">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>65.3</v>
+        <v>64.8</v>
       </c>
       <c r="B114">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>64.099999999999994</v>
+        <v>63.5</v>
       </c>
       <c r="B115">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>62.9</v>
+        <v>62.3</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>61.7</v>
+        <v>61.1</v>
       </c>
       <c r="B117">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>60.4</v>
+        <v>59.9</v>
       </c>
       <c r="B118">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>59.2</v>
+        <v>58.7</v>
       </c>
       <c r="B119">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="B120">
-        <v>1.04</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="B121">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="B122">
-        <v>1.0900000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>54.4</v>
+        <v>53.9</v>
       </c>
       <c r="B123">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="B124">
-        <v>1.0900000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="B125">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="B126">
-        <v>1.1100000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="B127">
-        <v>1.1200000000000001</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="B128">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>47.2</v>
+        <v>46.6</v>
       </c>
       <c r="B129">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="B130">
-        <v>1.68</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="B131">
-        <v>2.4700000000000002</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="B132">
-        <v>3.66</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="B133">
-        <v>5.89</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>41.1</v>
+        <v>40.6</v>
       </c>
       <c r="B134">
-        <v>8.81</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="B135">
-        <v>12.55</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>38.700000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="B136">
-        <v>18.079999999999998</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="B137">
-        <v>23.79</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>36.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="B138">
-        <v>30.96</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>35.1</v>
+        <v>34.5</v>
       </c>
       <c r="B139">
-        <v>38.44</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>33.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="B140">
-        <v>45.7</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>32.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="B141">
-        <v>52.97</v>
+        <v>69.349999999999994</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>31.5</v>
+        <v>30.9</v>
       </c>
       <c r="B142">
-        <v>60.76</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="B143">
-        <v>67.319999999999993</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="B144">
-        <v>74.650000000000006</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="B145">
-        <v>79.77</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="B146">
-        <v>84.73</v>
+        <v>93.23</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="B147">
-        <v>89.53</v>
+        <v>95.77</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="B148">
-        <v>92.81</v>
+        <v>97.82</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="B149">
-        <v>95.71</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="B150">
-        <v>97.71</v>
+        <v>99.46</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="B151">
-        <v>98.9</v>
+        <v>99.64</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>19.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="B152">
-        <v>99.53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>18.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="B153">
-        <v>100</v>
+        <v>99.79</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>17</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B154">
-        <v>99.77</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="B155">
-        <v>99.4</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="B156">
-        <v>98.42</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="B157">
-        <v>97.02</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="B158">
-        <v>95.98</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="B159">
-        <v>94.8</v>
+        <v>93.98</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B160">
-        <v>93.45</v>
+        <v>93.01</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="B161">
-        <v>92.25</v>
+        <v>92.32</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="B162">
-        <v>91.02</v>
+        <v>91.28</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="B163">
-        <v>90.09</v>
+        <v>90.48</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B164">
-        <v>89.08</v>
+        <v>89.46</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="B165">
-        <v>87.93</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="B166">
-        <v>86.73</v>
+        <v>87.06</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="B167">
-        <v>85.7</v>
+        <v>86.61</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -20383,7 +20383,7 @@
         <v>-0.5</v>
       </c>
       <c r="B168">
-        <v>83.99</v>
+        <v>87.08</v>
       </c>
     </row>
   </sheetData>
